--- a/src/predicciones/xgboost/producto_292.xlsx
+++ b/src/predicciones/xgboost/producto_292.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,33 +386,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>45199</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
